--- a/Tableau de bord.xlsx
+++ b/Tableau de bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PHP\Projet\projectPHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B967AB-7BE3-469A-9389-6DBC971294D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52544C2-EE7B-4FC3-AD57-2B6CF56DDADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2265" windowWidth="21600" windowHeight="11385" xr2:uid="{0269BC55-9499-4618-8092-600EE3F0C448}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Nom</t>
   </si>
@@ -47,15 +47,29 @@
   <si>
     <t>Contribution</t>
   </si>
+  <si>
+    <t>François</t>
+  </si>
+  <si>
+    <t>Création du tableau de bord</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,14 +95,93 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -397,25 +490,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35555EA8-B618-43E7-B075-D8312B4E157D}">
-  <dimension ref="B2:E2"/>
+  <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
@@ -425,7 +518,33 @@
         <v>3</v>
       </c>
     </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>44183</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"François"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"Anthony"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"Thomas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Lucas"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tableau de bord.xlsx
+++ b/Tableau de bord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PHP\Projet\projectPHP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xampp\htdocs\ANTHONY\projectPHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52544C2-EE7B-4FC3-AD57-2B6CF56DDADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C334096B-0022-42FC-9AE0-5C8DE8251FB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2265" windowWidth="21600" windowHeight="11385" xr2:uid="{0269BC55-9499-4618-8092-600EE3F0C448}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0269BC55-9499-4618-8092-600EE3F0C448}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Nom</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Création du tableau de bord</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Partie 1</t>
   </si>
 </sst>
 </file>
@@ -104,46 +110,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -158,13 +129,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -490,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35555EA8-B618-43E7-B075-D8312B4E157D}">
-  <dimension ref="B2:E10"/>
+  <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,18 +493,32 @@
         <v>5</v>
       </c>
     </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>44183</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"François"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Anthony"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Thomas"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Tableau de bord.xlsx
+++ b/Tableau de bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xampp\htdocs\ANTHONY\projectPHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C334096B-0022-42FC-9AE0-5C8DE8251FB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638BAA9D-645D-428B-8E68-D7C854958CB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0269BC55-9499-4618-8092-600EE3F0C448}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Nom</t>
   </si>
@@ -57,7 +57,10 @@
     <t>Anthony</t>
   </si>
   <si>
-    <t>Partie 1</t>
+    <t>N°1</t>
+  </si>
+  <si>
+    <t>Tout</t>
   </si>
 </sst>
 </file>
@@ -454,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35555EA8-B618-43E7-B075-D8312B4E157D}">
-  <dimension ref="B2:E11"/>
+  <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,6 +507,20 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>44185</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Tableau de bord.xlsx
+++ b/Tableau de bord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xampp\htdocs\ANTHONY\projectPHP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PHP\Projet\projectPHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638BAA9D-645D-428B-8E68-D7C854958CB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953A95EF-B151-45B5-B2C3-12E962430F2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0269BC55-9499-4618-8092-600EE3F0C448}"/>
+    <workbookView xWindow="16965" yWindow="4965" windowWidth="21600" windowHeight="11385" xr2:uid="{0269BC55-9499-4618-8092-600EE3F0C448}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Nom</t>
   </si>
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35555EA8-B618-43E7-B075-D8312B4E157D}">
-  <dimension ref="B2:E12"/>
+  <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,6 +521,34 @@
         <v>6</v>
       </c>
       <c r="E12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>44195</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>44196</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Tableau de bord.xlsx
+++ b/Tableau de bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PHP\Projet\projectPHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953A95EF-B151-45B5-B2C3-12E962430F2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF610709-0E5F-416E-8681-FFC78522D0CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16965" yWindow="4965" windowWidth="21600" windowHeight="11385" xr2:uid="{0269BC55-9499-4618-8092-600EE3F0C448}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0269BC55-9499-4618-8092-600EE3F0C448}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Nom</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>Tout</t>
+  </si>
+  <si>
+    <t>Implémentation système de base</t>
+  </si>
+  <si>
+    <t>Implémentation meilleur système</t>
+  </si>
+  <si>
+    <t>Finalisation</t>
   </si>
 </sst>
 </file>
@@ -117,7 +126,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -131,14 +147,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -457,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35555EA8-B618-43E7-B075-D8312B4E157D}">
-  <dimension ref="B2:E14"/>
+  <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +477,7 @@
     <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
@@ -485,86 +494,114 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
         <v>44183</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
         <v>44183</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
         <v>44185</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12">
+      <c r="D5">
         <v>6</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
         <v>44195</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13">
+      <c r="D6">
         <v>17</v>
       </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
         <v>44196</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D14">
+      <c r="D7">
         <v>18</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E7" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>44201</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>44202</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"François"</formula>
+  <conditionalFormatting sqref="C17:C1048576 C1:C9">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Lucas"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Thomas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Anthony"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"Thomas"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Lucas"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tableau de bord.xlsx
+++ b/Tableau de bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PHP\Projet\projectPHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF610709-0E5F-416E-8681-FFC78522D0CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE93399-671F-449C-AC7F-937B522708E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0269BC55-9499-4618-8092-600EE3F0C448}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Nom</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Finalisation</t>
+  </si>
+  <si>
+    <t>Finalisation état authentifié</t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35555EA8-B618-43E7-B075-D8312B4E157D}">
-  <dimension ref="B2:E9"/>
+  <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
@@ -589,8 +592,22 @@
         <v>11</v>
       </c>
     </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>44202</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C17:C1048576 C1:C9">
+  <conditionalFormatting sqref="C17:C1048576 C1:C10">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>

--- a/Tableau de bord.xlsx
+++ b/Tableau de bord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PHP\Projet\projectPHP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xampp\htdocs\ANTHONY\projectPHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE93399-671F-449C-AC7F-937B522708E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC8BFD7-7576-4920-B165-937AC7BC2DC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0269BC55-9499-4618-8092-600EE3F0C448}"/>
+    <workbookView xWindow="3840" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{0269BC55-9499-4618-8092-600EE3F0C448}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Nom</t>
   </si>
@@ -125,7 +125,91 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -469,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35555EA8-B618-43E7-B075-D8312B4E157D}">
-  <dimension ref="B2:E10"/>
+  <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +617,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -606,8 +690,36 @@
         <v>12</v>
       </c>
     </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>44204</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C17:C1048576 C1:C10">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+      <formula>"Lucas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+      <formula>"Thomas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+      <formula>"Anthony"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+      <formula>"François"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>

--- a/Tableau de bord.xlsx
+++ b/Tableau de bord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xampp\htdocs\ANTHONY\projectPHP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PHP\Projet\projectPHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC8BFD7-7576-4920-B165-937AC7BC2DC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E64B60-EAA9-48C3-98A2-608DCA75CD15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{0269BC55-9499-4618-8092-600EE3F0C448}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0269BC55-9499-4618-8092-600EE3F0C448}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Nom</t>
   </si>
@@ -73,6 +73,14 @@
   </si>
   <si>
     <t>Finalisation état authentifié</t>
+  </si>
+  <si>
+    <t>27
+26</t>
+  </si>
+  <si>
+    <t>Tout
+Tout</t>
   </si>
 </sst>
 </file>
@@ -116,11 +124,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35555EA8-B618-43E7-B075-D8312B4E157D}">
-  <dimension ref="B2:E11"/>
+  <dimension ref="B2:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,34 +703,90 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>44204</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>44204</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C17:C1048576 C1:C10">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"Thomas"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"Anthony"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+      <formula>"François"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>"Lucas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>"Thomas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>"Anthony"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"Lucas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"Thomas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"Anthony"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>"François"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>

--- a/Tableau de bord.xlsx
+++ b/Tableau de bord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PHP\Projet\projectPHP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xampp\htdocs\ANTHONY\projectPHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E64B60-EAA9-48C3-98A2-608DCA75CD15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314C6E52-07B5-441F-8942-3F8E14154990}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0269BC55-9499-4618-8092-600EE3F0C448}"/>
+    <workbookView xWindow="3840" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{0269BC55-9499-4618-8092-600EE3F0C448}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>Nom</t>
   </si>
@@ -81,6 +81,9 @@
   <si>
     <t>Tout
 Tout</t>
+  </si>
+  <si>
+    <t>Affichage et titre clicable</t>
   </si>
 </sst>
 </file>
@@ -136,7 +139,91 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -564,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35555EA8-B618-43E7-B075-D8312B4E157D}">
-  <dimension ref="B2:E13"/>
+  <dimension ref="B2:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,36 +830,92 @@
         <v>14</v>
       </c>
     </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>44205</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>44205</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C17:C1048576 C1:C10">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
       <formula>"Thomas"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
       <formula>"Anthony"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
       <formula>"Thomas"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>"Anthony"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+      <formula>"Lucas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+      <formula>"Thomas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+      <formula>"Anthony"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+      <formula>"François"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+      <formula>"Lucas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+      <formula>"Thomas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+      <formula>"Anthony"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>"François"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -786,7 +929,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
+  <conditionalFormatting sqref="C15">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>

--- a/Tableau de bord.xlsx
+++ b/Tableau de bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xampp\htdocs\ANTHONY\projectPHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314C6E52-07B5-441F-8942-3F8E14154990}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300DE598-B53F-4B5C-A059-32EB0A3E4BFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{0269BC55-9499-4618-8092-600EE3F0C448}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>Nom</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Affichage et titre clicable</t>
+  </si>
+  <si>
+    <t>Fini</t>
   </si>
 </sst>
 </file>
@@ -651,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35555EA8-B618-43E7-B075-D8312B4E157D}">
-  <dimension ref="B2:E15"/>
+  <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,64 +861,92 @@
         <v>15</v>
       </c>
     </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>44206</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C17:C1048576 C1:C10">
-    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"Thomas"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>"Anthony"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"Thomas"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>"Anthony"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"Thomas"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"Anthony"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"Thomas"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"Anthony"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>"Lucas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>"Thomas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>"Anthony"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>"François"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -929,7 +960,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
+  <conditionalFormatting sqref="C16">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>

--- a/Tableau de bord.xlsx
+++ b/Tableau de bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xampp\htdocs\ANTHONY\projectPHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300DE598-B53F-4B5C-A059-32EB0A3E4BFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54B687D-7931-4E82-9057-48966EE136D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{0269BC55-9499-4618-8092-600EE3F0C448}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>Nom</t>
   </si>
@@ -142,7 +142,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -654,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35555EA8-B618-43E7-B075-D8312B4E157D}">
-  <dimension ref="B2:E16"/>
+  <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,8 +903,36 @@
         <v>16</v>
       </c>
     </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>44206</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C17:C1048576 C1:C10">
+  <conditionalFormatting sqref="C18:C1048576 C1:C10">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+      <formula>"Lucas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+      <formula>"Thomas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+      <formula>"Anthony"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+      <formula>"François"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
     <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -890,7 +946,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
+  <conditionalFormatting sqref="C11">
     <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -904,7 +960,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
+  <conditionalFormatting sqref="C13">
     <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -918,7 +974,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
+  <conditionalFormatting sqref="C14">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -932,7 +988,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
+  <conditionalFormatting sqref="C15">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -946,7 +1002,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
+  <conditionalFormatting sqref="C16">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -960,7 +1016,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
+  <conditionalFormatting sqref="C17">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>

--- a/Tableau de bord.xlsx
+++ b/Tableau de bord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xampp\htdocs\ANTHONY\projectPHP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PHP\Projet\projectPHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54B687D-7931-4E82-9057-48966EE136D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871D9E78-41E1-4945-81EF-D078A451DA45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{0269BC55-9499-4618-8092-600EE3F0C448}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0269BC55-9499-4618-8092-600EE3F0C448}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>Nom</t>
   </si>
@@ -87,6 +87,10 @@
   </si>
   <si>
     <t>Fini</t>
+  </si>
+  <si>
+    <t>9
+10</t>
   </si>
 </sst>
 </file>
@@ -142,7 +146,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -682,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35555EA8-B618-43E7-B075-D8312B4E157D}">
-  <dimension ref="B2:E17"/>
+  <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,8 +949,36 @@
         <v>8</v>
       </c>
     </row>
+    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>44208</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C18:C1048576 C1:C10">
+  <conditionalFormatting sqref="C19:C1048576 C1:C10">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+      <formula>"Lucas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+      <formula>"Thomas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+      <formula>"Anthony"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+      <formula>"François"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
     <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -932,7 +992,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
+  <conditionalFormatting sqref="C11">
     <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -946,7 +1006,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
+  <conditionalFormatting sqref="C13">
     <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -960,7 +1020,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
+  <conditionalFormatting sqref="C14">
     <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -974,7 +1034,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
+  <conditionalFormatting sqref="C15">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -988,7 +1048,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
+  <conditionalFormatting sqref="C16">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1002,7 +1062,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
+  <conditionalFormatting sqref="C17">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1016,7 +1076,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
+  <conditionalFormatting sqref="C18">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>

--- a/Tableau de bord.xlsx
+++ b/Tableau de bord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PHP\Projet\projectPHP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\php\projet\projectPHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871D9E78-41E1-4945-81EF-D078A451DA45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77867910-FD0B-489A-B46B-0255D9101A46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0269BC55-9499-4618-8092-600EE3F0C448}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{0269BC55-9499-4618-8092-600EE3F0C448}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>Nom</t>
   </si>
@@ -91,6 +91,19 @@
   <si>
     <t>9
 10</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>11
+12
+13</t>
+  </si>
+  <si>
+    <t>Tout
+Tout
+Tout</t>
   </si>
 </sst>
 </file>
@@ -714,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35555EA8-B618-43E7-B075-D8312B4E157D}">
-  <dimension ref="B2:E18"/>
+  <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,6 +976,20 @@
         <v>14</v>
       </c>
     </row>
+    <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>44208</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C19:C1048576 C1:C10">
     <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">

--- a/Tableau de bord.xlsx
+++ b/Tableau de bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\php\projet\projectPHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77867910-FD0B-489A-B46B-0255D9101A46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6919F6CF-A188-4BAE-840A-2C2B037FA1B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{0269BC55-9499-4618-8092-600EE3F0C448}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
   <si>
     <t>Nom</t>
   </si>
@@ -98,10 +98,12 @@
   <si>
     <t>11
 12
-13</t>
+13
+28</t>
   </si>
   <si>
     <t>Tout
+Tout
 Tout
 Tout</t>
   </si>
@@ -159,7 +161,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="40">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -727,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35555EA8-B618-43E7-B075-D8312B4E157D}">
-  <dimension ref="B2:E19"/>
+  <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,15 +958,15 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
@@ -945,7 +975,7 @@
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -956,42 +986,70 @@
         <v>6</v>
       </c>
       <c r="D17">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>44206</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
         <v>8</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>44208</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>44208</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>44208</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C19:C1048576 C1:C10">
+  <conditionalFormatting sqref="C1:C10 C20:C1048576">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+      <formula>"Lucas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+      <formula>"Thomas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+      <formula>"Anthony"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+      <formula>"François"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
     <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1005,7 +1063,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
+  <conditionalFormatting sqref="C11">
     <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1019,7 +1077,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
+  <conditionalFormatting sqref="C13">
     <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1033,7 +1091,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
+  <conditionalFormatting sqref="C14">
     <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1047,7 +1105,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
+  <conditionalFormatting sqref="C16">
     <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1061,7 +1119,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
+  <conditionalFormatting sqref="C17">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1075,7 +1133,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
+  <conditionalFormatting sqref="C18">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1089,7 +1147,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
+  <conditionalFormatting sqref="C19">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1103,7 +1161,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="C15">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>

--- a/Tableau de bord.xlsx
+++ b/Tableau de bord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\php\projet\projectPHP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xampp\htdocs\ANTHONY\projectPHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6919F6CF-A188-4BAE-840A-2C2B037FA1B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02F352E-1726-44F7-9F4B-303779816DCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{0269BC55-9499-4618-8092-600EE3F0C448}"/>
+    <workbookView xWindow="3840" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{0269BC55-9499-4618-8092-600EE3F0C448}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
   <si>
     <t>Nom</t>
   </si>
@@ -106,6 +106,12 @@
 Tout
 Tout
 Tout</t>
+  </si>
+  <si>
+    <t>Affichage (ne fonctionne pas encore)</t>
+  </si>
+  <si>
+    <t>Tout sauf le cookie</t>
   </si>
 </sst>
 </file>
@@ -161,7 +167,119 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="56">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -757,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35555EA8-B618-43E7-B075-D8312B4E157D}">
-  <dimension ref="B2:E20"/>
+  <dimension ref="B2:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +886,7 @@
     <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
@@ -1034,8 +1152,120 @@
         <v>20</v>
       </c>
     </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>44208</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>44208</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>44208</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>44208</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C10 C20:C1048576">
+  <conditionalFormatting sqref="C1:C10 C20 C25:C1048576">
+    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
+      <formula>"Lucas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
+      <formula>"Thomas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
+      <formula>"Anthony"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
+      <formula>"François"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
+      <formula>"Lucas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+      <formula>"Thomas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+      <formula>"Anthony"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
+      <formula>"François"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
+      <formula>"Lucas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+      <formula>"Thomas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+      <formula>"Anthony"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
+      <formula>"François"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+      <formula>"Lucas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+      <formula>"Thomas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+      <formula>"Anthony"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+      <formula>"François"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
     <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1049,7 +1279,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
+  <conditionalFormatting sqref="C16">
     <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1063,7 +1293,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
+  <conditionalFormatting sqref="C17">
     <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1077,7 +1307,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
+  <conditionalFormatting sqref="C18">
     <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1091,7 +1321,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
+  <conditionalFormatting sqref="C19">
     <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1105,7 +1335,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
+  <conditionalFormatting sqref="C15">
     <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1119,7 +1349,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
+  <conditionalFormatting sqref="C21">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1133,7 +1363,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="C22">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1147,7 +1377,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
+  <conditionalFormatting sqref="C23">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1161,7 +1391,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
+  <conditionalFormatting sqref="C24">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>

--- a/Tableau de bord.xlsx
+++ b/Tableau de bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xampp\htdocs\ANTHONY\projectPHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02F352E-1726-44F7-9F4B-303779816DCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1082D816-3550-40A2-BAF2-B338A3EEC791}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{0269BC55-9499-4618-8092-600EE3F0C448}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
   <si>
     <t>Nom</t>
   </si>
@@ -167,7 +167,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="60">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -875,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35555EA8-B618-43E7-B075-D8312B4E157D}">
-  <dimension ref="B2:E24"/>
+  <dimension ref="B2:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,8 +1236,36 @@
         <v>22</v>
       </c>
     </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <v>44209</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C10 C20 C25:C1048576">
+  <conditionalFormatting sqref="C1:C10 C20 C26:C1048576">
+    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
+      <formula>"Lucas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
+      <formula>"Thomas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
+      <formula>"Anthony"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
+      <formula>"François"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
     <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1223,7 +1279,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
+  <conditionalFormatting sqref="C11">
     <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1237,7 +1293,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
+  <conditionalFormatting sqref="C13">
     <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1251,7 +1307,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
+  <conditionalFormatting sqref="C14">
     <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1265,7 +1321,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
+  <conditionalFormatting sqref="C16">
     <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1279,7 +1335,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
+  <conditionalFormatting sqref="C17">
     <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1293,7 +1349,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
+  <conditionalFormatting sqref="C18">
     <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1307,7 +1363,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="C19">
     <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1321,7 +1377,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
+  <conditionalFormatting sqref="C15">
     <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1335,7 +1391,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
+  <conditionalFormatting sqref="C21">
     <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1349,7 +1405,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
+  <conditionalFormatting sqref="C22">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1363,7 +1419,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
+  <conditionalFormatting sqref="C23">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1377,7 +1433,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
+  <conditionalFormatting sqref="C24">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1391,7 +1447,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
+  <conditionalFormatting sqref="C25">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>

--- a/Tableau de bord.xlsx
+++ b/Tableau de bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xampp\htdocs\ANTHONY\projectPHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1082D816-3550-40A2-BAF2-B338A3EEC791}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBA4A17-DB5F-4324-B16A-F4A9FCAAAB33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{0269BC55-9499-4618-8092-600EE3F0C448}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
   <si>
     <t>Nom</t>
   </si>
@@ -167,7 +167,63 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="68">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -903,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35555EA8-B618-43E7-B075-D8312B4E157D}">
-  <dimension ref="B2:E25"/>
+  <dimension ref="B2:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1250,8 +1306,64 @@
         <v>8</v>
       </c>
     </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <v>44210</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <v>44210</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C10 C20 C26:C1048576">
+  <conditionalFormatting sqref="C1:C10 C20 C28:C1048576">
+    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
+      <formula>"Lucas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
+      <formula>"Thomas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
+      <formula>"Anthony"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
+      <formula>"François"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
+      <formula>"Lucas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
+      <formula>"Thomas"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
+      <formula>"Anthony"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="64" operator="equal">
+      <formula>"François"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
     <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1265,7 +1377,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
+  <conditionalFormatting sqref="C13">
     <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1279,7 +1391,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
+  <conditionalFormatting sqref="C14">
     <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1293,7 +1405,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
+  <conditionalFormatting sqref="C16">
     <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1307,7 +1419,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
+  <conditionalFormatting sqref="C17">
     <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1321,7 +1433,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
+  <conditionalFormatting sqref="C18">
     <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1335,7 +1447,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
+  <conditionalFormatting sqref="C19">
     <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1349,7 +1461,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="C15">
     <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1363,7 +1475,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
+  <conditionalFormatting sqref="C21">
     <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1377,7 +1489,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
+  <conditionalFormatting sqref="C22">
     <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1391,7 +1503,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
+  <conditionalFormatting sqref="C23">
     <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1405,7 +1517,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
+  <conditionalFormatting sqref="C24">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1419,7 +1531,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
+  <conditionalFormatting sqref="C25">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1433,7 +1545,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
+  <conditionalFormatting sqref="C26">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
@@ -1447,7 +1559,7 @@
       <formula>"François"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C27">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Lucas"</formula>
     </cfRule>
